--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Higo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Higo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44973</v>
+        <v>44238</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="N2" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="T2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44238</v>
+        <v>44973</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P3" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="T3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Higo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Higo.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44238</v>
+        <v>44973</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P2" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="T2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44973</v>
+        <v>44238</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="N3" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="T3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
